--- a/SacredElement.xlsx
+++ b/SacredElement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee11846ce882123f/Desktop/hem-catalogue-app_final-1/hem-catalogue-app-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{E9A0F783-2FE4-4FED-A298-A23D9B27E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB76688-13B6-439E-B879-8412F7750483}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{E9A0F783-2FE4-4FED-A298-A23D9B27E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34BF370F-CBF7-4599-817A-8E9F02289E30}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DBC07F3F-378B-484D-90AD-F709C710C6B9}"/>
   </bookViews>
@@ -320,18 +320,6 @@
     <t xml:space="preserve">SH Lavender Sacred Element-OS </t>
   </si>
   <si>
-    <t>SH Saffronia Sacred Element-OS (women)</t>
-  </si>
-  <si>
-    <t>SH White Oudh Sacred Element-OS (men)</t>
-  </si>
-  <si>
-    <t>SH Good Vibes Sacred Element-OS (women)</t>
-  </si>
-  <si>
-    <t>SH Tantra Sacred Element-OS (men)</t>
-  </si>
-  <si>
     <t>White Oudh Organic Incense Sticks</t>
   </si>
   <si>
@@ -642,6 +630,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sacred Harmony </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH Saffronia Sacred Element-OS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH White Oudh Sacred Element-OS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH Good Vibes Sacred Element-OS </t>
+  </si>
+  <si>
+    <t>SH Tantra Sacred Element-OS</t>
   </si>
 </sst>
 </file>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D7FE7C-11EF-4516-9D9A-706DE80968F0}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1174,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1226,10 +1226,10 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1237,10 +1237,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1248,10 +1248,10 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1259,10 +1259,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1270,10 +1270,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1281,10 +1281,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1292,10 +1292,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1350,7 +1350,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1361,7 +1361,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1394,7 +1394,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1416,7 +1416,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1427,7 +1427,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,7 +1449,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,7 +1460,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1471,7 +1471,7 @@
         <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
         <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
         <v>52</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>53</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,7 +1537,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,7 +1548,7 @@
         <v>55</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,7 +1559,7 @@
         <v>57</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
         <v>58</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
         <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1592,7 +1592,7 @@
         <v>61</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,7 +1603,7 @@
         <v>62</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1614,7 +1614,7 @@
         <v>63</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,7 +1625,7 @@
         <v>64</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,7 +1636,7 @@
         <v>65</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1647,7 +1647,7 @@
         <v>66</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
         <v>68</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1669,7 +1669,7 @@
         <v>69</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,7 +1680,7 @@
         <v>70</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,7 +1691,7 @@
         <v>71</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>72</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,7 +1713,7 @@
         <v>73</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1735,7 +1735,7 @@
         <v>75</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1746,7 +1746,7 @@
         <v>77</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
         <v>78</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,7 +1768,7 @@
         <v>79</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,7 +1779,7 @@
         <v>80</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>81</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1801,7 +1801,7 @@
         <v>82</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1812,7 +1812,7 @@
         <v>84</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1823,7 +1823,7 @@
         <v>85</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
         <v>86</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1845,7 +1845,7 @@
         <v>87</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,7 +1856,7 @@
         <v>88</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,7 +1867,7 @@
         <v>89</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1889,7 +1889,7 @@
         <v>92</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1897,10 +1897,10 @@
         <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1908,10 +1908,10 @@
         <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1919,10 +1919,10 @@
         <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1930,131 +1930,131 @@
         <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2065,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2076,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2087,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2142,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2175,7 +2175,7 @@
         <v>7</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2186,7 +2186,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2197,55 +2197,55 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/SacredElement.xlsx
+++ b/SacredElement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee11846ce882123f/Desktop/hem-catalogue-app_final-1/hem-catalogue-app-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{E9A0F783-2FE4-4FED-A298-A23D9B27E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34BF370F-CBF7-4599-817A-8E9F02289E30}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{E9A0F783-2FE4-4FED-A298-A23D9B27E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F092A2CC-8FB7-4858-AC4E-0C2A95F5DA61}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DBC07F3F-378B-484D-90AD-F709C710C6B9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="188">
   <si>
     <t>Category</t>
   </si>
@@ -74,27 +74,6 @@
     <t>Resin</t>
   </si>
   <si>
-    <t xml:space="preserve">Dhoop Sticks Organic </t>
-  </si>
-  <si>
-    <t>Mystic Bloom Organic Dhoop sticks</t>
-  </si>
-  <si>
-    <t>White Lily Organic Dhoop sticks</t>
-  </si>
-  <si>
-    <t>Sacred Harmony  Organic Dhoop sticks</t>
-  </si>
-  <si>
-    <t>Musk confirmed Organic Dhoop sticks</t>
-  </si>
-  <si>
-    <t>Vital  Violet Organic Dhoop sticks</t>
-  </si>
-  <si>
-    <t>Wild Flower Organic Dhoop sticks</t>
-  </si>
-  <si>
     <t>Smudge Organic Disc</t>
   </si>
   <si>
@@ -149,45 +128,9 @@
     <t>SCARED ELEMENTS MANIFESTATION INCENSE</t>
   </si>
   <si>
-    <t xml:space="preserve">SELF LOVE </t>
-  </si>
-  <si>
-    <t>LOVE POTION</t>
-  </si>
-  <si>
-    <t>GROUNDING</t>
-  </si>
-  <si>
-    <t>NEW BEGINNINGS</t>
-  </si>
-  <si>
-    <t>ENERGY CLEANSE</t>
-  </si>
-  <si>
-    <t>ABUNDANCE</t>
-  </si>
-  <si>
     <t>Manifestation candle 185 grms</t>
   </si>
   <si>
-    <t xml:space="preserve">Grounding </t>
-  </si>
-  <si>
-    <t>Self Love</t>
-  </si>
-  <si>
-    <t>Love Potion</t>
-  </si>
-  <si>
-    <t>Energy Cleanse</t>
-  </si>
-  <si>
-    <t>Abundance</t>
-  </si>
-  <si>
-    <t>New Beginnings</t>
-  </si>
-  <si>
     <t>Affirmation Ritual Kit</t>
   </si>
   <si>
@@ -557,24 +500,6 @@
     <t>SH Palo Santo Organic Cones-Shantala</t>
   </si>
   <si>
-    <t>SH Mystic Bloom Organic Dhoop Sticks</t>
-  </si>
-  <si>
-    <t>SH White Lily Organic Dhoop Sticks</t>
-  </si>
-  <si>
-    <t>SH Sacred Harmony Organic Dhoop Sticks</t>
-  </si>
-  <si>
-    <t>SH Musk Organic Dhoop Sticks</t>
-  </si>
-  <si>
-    <t>SH Vital Violet Organic Dhoop Sticks</t>
-  </si>
-  <si>
-    <t>SH Wild Flower Organic Dhoop Sticks</t>
-  </si>
-  <si>
     <t>Copal Resin</t>
   </si>
   <si>
@@ -642,6 +567,42 @@
   </si>
   <si>
     <t>SH Tantra Sacred Element-OS</t>
+  </si>
+  <si>
+    <t>Grounding candle</t>
+  </si>
+  <si>
+    <t>Self Love candle</t>
+  </si>
+  <si>
+    <t>Love Potion candle</t>
+  </si>
+  <si>
+    <t>Energy Cleanse candle</t>
+  </si>
+  <si>
+    <t>Abundance candle</t>
+  </si>
+  <si>
+    <t>New Beginnings candle</t>
+  </si>
+  <si>
+    <t>SELF LOVE INCENSE</t>
+  </si>
+  <si>
+    <t>LOVE POTION INCENSE</t>
+  </si>
+  <si>
+    <t>GROUNDING INCENSE</t>
+  </si>
+  <si>
+    <t>NEW BEGINNINGS INCENSE</t>
+  </si>
+  <si>
+    <t>ENERGY CLEANSE INCENSE</t>
+  </si>
+  <si>
+    <t>ABUNDANCE INCENSE</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D7FE7C-11EF-4516-9D9A-706DE80968F0}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1157,10 +1118,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -1168,959 +1129,959 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>174</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,128 +2089,62 @@
         <v>10</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E101" xr:uid="{60D7FE7C-11EF-4516-9D9A-706DE80968F0}"/>
+  <autoFilter ref="A1:E95" xr:uid="{60D7FE7C-11EF-4516-9D9A-706DE80968F0}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SacredElement.xlsx
+++ b/SacredElement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee11846ce882123f/Desktop/hem-catalogue-app_final-1/hem-catalogue-app-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{E9A0F783-2FE4-4FED-A298-A23D9B27E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F092A2CC-8FB7-4858-AC4E-0C2A95F5DA61}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{E9A0F783-2FE4-4FED-A298-A23D9B27E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24A464F7-83AC-4A6C-861B-8086A2E0DF7F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DBC07F3F-378B-484D-90AD-F709C710C6B9}"/>
   </bookViews>
@@ -194,9 +194,6 @@
     <t>Palo santo Room Spray</t>
   </si>
   <si>
-    <t>Lavender &amp; White Sage Room Spray</t>
-  </si>
-  <si>
     <t>White Sage Room Spray</t>
   </si>
   <si>
@@ -603,6 +600,9 @@
   </si>
   <si>
     <t>ABUNDANCE INCENSE</t>
+  </si>
+  <si>
+    <t>Lavender and White Sage Room Spray</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D7FE7C-11EF-4516-9D9A-706DE80968F0}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1187,10 +1187,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1198,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1209,10 +1209,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1231,10 +1231,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1242,10 +1242,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1253,10 +1253,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1289,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,7 +1300,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,7 +1311,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1319,10 +1319,10 @@
         <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1330,10 +1330,10 @@
         <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1341,10 +1341,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1352,10 +1352,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,10 +1363,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,10 +1374,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1385,10 +1385,10 @@
         <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,10 +1396,10 @@
         <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,10 +1407,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,10 +1418,10 @@
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1429,10 +1429,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1440,10 +1440,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1476,7 +1476,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,7 +1509,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1520,7 +1520,7 @@
         <v>38</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>39</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1542,7 +1542,7 @@
         <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>44</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,7 +1586,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
         <v>46</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,7 +1608,7 @@
         <v>47</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1619,7 +1619,7 @@
         <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>50</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1638,10 +1638,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,10 +1649,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1660,10 +1660,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1671,10 +1671,10 @@
         <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1682,10 +1682,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1693,329 +1693,329 @@
         <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2037,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2070,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2081,7 +2081,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2092,55 +2092,55 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
